--- a/biology/Histoire de la zoologie et de la botanique/Francis_Hugh_Adam_Marshall/Francis_Hugh_Adam_Marshall.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Francis_Hugh_Adam_Marshall/Francis_Hugh_Adam_Marshall.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Francis Hugh Adam Marshall est un biologiste britannique, né le 11 juillet 1878 à High Wycombe et mort le 5 février 1949 à Cambridge des suites d’une appendicite.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son père est un collectionneur d’oiseaux naturalisés. Il fait ses études à l’université de Londres en 1895, puis l’année suivante entre à Cambridge. Il suit notamment les cours de Sir Arthur Everett Shipley (1861-1927) et de Adam Sedgwick (1785-1873). Il part, grâce à Arthur Thomas Masterman (1869-1941), poursuivre ses études à Édimbourg en 1900. Il y exerce les fonctions de professeur assistant (1903-1904), boursier Carnegie (1904-1907), maître assistant de la physiologie de la reproduction (1905-1908) et assistant du professeur de physiologie (1906-1908).
 En 1908, Marshall retourne à Cambridge où il maître assistant de physiologie agricole. Avec Sir Rowland Henry Biffen (1874-1949) et Thomas Barlowe Wood (1869-1929), il contribue à faire de l’école d’agriculture de Cambridge l’une des plus importantes au monde. Il devient membre du Christ's College (Cambridge) en 1909, où il exerce diverses fonctions.
@@ -545,9 +559,11 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1910 : The physiology of reproduction[1] (Longmans Green &amp; Co., Londres).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1910 : The physiology of reproduction (Longmans Green &amp; Co., Londres).
 1925 : An Introduction to sexual physiology (Longmans Green &amp; Co., Londres).</t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Note</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Version numérique sur Internet Archive.
@@ -608,7 +626,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Alan Sterling Parkes (1950). Francis Hugh Adam Marshall. 1878-1949, Obituary Notices of Fellows of the Royal Society, 7 (19) : 238-251 – L’article donne une bibliographie complète.</t>
         </is>
